--- a/pred_ohlcv/54_21/2019-10-26 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 RNT ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>-368505.018</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-371032.638</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-538153.3489</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-538141.3489</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-488517.4009</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-488517.4009</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-488507.4009</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-490947.8212</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-523890.2015</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-523880.2015</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-526422.8816000001</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-574399.9884000001</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-574399.9884000001</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-865419.2400000001</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-865419.2400000001</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-865419.2400000001</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-869262.3300000001</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-869262.3300000001</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-869262.3300000001</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-866218.8787000001</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-869351.8760000002</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-869321.8760000002</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-869271.8760000002</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-865893.8572000002</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-865893.8572000002</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-865893.8572000002</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-865893.8572000002</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-865893.8572000002</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-865893.8572000002</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-865893.8572000002</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-865893.8572000002</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-865869.9769000002</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-691424.7490000003</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-712740.9548000003</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-712740.9548000003</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-712740.9548000003</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-735806.9342000003</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-735794.9342000003</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-735794.9342000003</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-735794.9342000003</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-740504.9342000003</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-745527.7121000002</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-742717.7121000002</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-830393.0355000002</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-825801.8976000003</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-825801.8976000003</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-825801.8976000003</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-825801.8976000003</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-825801.8976000003</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-894885.8433000003</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-796550.5450000003</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-863702.7808000003</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-939693.2576000004</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-939693.2576000004</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-939693.2576000004</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-939693.2576000004</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-26 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 RNT ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>-368505.018</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-371032.638</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-538153.3489</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-538141.3489</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-488517.4009</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-488517.4009</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-488507.4009</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-490947.8212</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-523890.2015</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-523880.2015</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-526422.8816000001</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-460182.6701000001</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-574399.9884000001</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-574399.9884000001</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-865419.2400000001</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-865419.2400000001</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-865419.2400000001</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-869262.3300000001</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-869262.3300000001</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-869262.3300000001</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-865893.8572000002</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-865893.8572000002</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-865893.8572000002</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-865869.9769000002</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-712740.9548000003</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-712740.9548000003</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-712740.9548000003</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-735806.9342000003</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-735794.9342000003</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-735794.9342000003</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-735794.9342000003</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-740504.9342000003</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-825801.8976000003</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-825801.8976000003</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-825801.8976000003</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-894885.8433000003</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-796550.5450000003</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-863702.7808000003</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-863702.7808000003</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-939693.2576000004</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-939693.2576000004</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-939693.2576000004</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-939693.2576000004</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
